--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\modellclub\2003_covid_modell\github\covid19regional\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\modellclub\2003_covid_modell\_Bulletin\LeipzigPlus_21\IMISE-Epidemiologisches-Bulletin-21\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D555"/>
+  <dimension ref="A1:D559"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A537" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B549" sqref="B549:B552"/>
+      <selection activeCell="B557" sqref="B557"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44053</v>
       </c>
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44054</v>
       </c>
@@ -451,7 +451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44055</v>
       </c>
@@ -465,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44056</v>
       </c>
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44057</v>
       </c>
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44058</v>
       </c>
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44059</v>
       </c>
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44060</v>
       </c>
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44061</v>
       </c>
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44062</v>
       </c>
@@ -557,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44063</v>
       </c>
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44064</v>
       </c>
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44065</v>
       </c>
@@ -596,7 +596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44066</v>
       </c>
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44067</v>
       </c>
@@ -621,7 +621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44068</v>
       </c>
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44069</v>
       </c>
@@ -649,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -663,7 +663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44071</v>
       </c>
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44072</v>
       </c>
@@ -688,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44073</v>
       </c>
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44075</v>
       </c>
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44076</v>
       </c>
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44077</v>
       </c>
@@ -755,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44078</v>
       </c>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44079</v>
       </c>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44080</v>
       </c>
@@ -791,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44081</v>
       </c>
@@ -805,7 +805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44082</v>
       </c>
@@ -819,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44083</v>
       </c>
@@ -833,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44084</v>
       </c>
@@ -847,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44085</v>
       </c>
@@ -861,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44086</v>
       </c>
@@ -872,7 +872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44087</v>
       </c>
@@ -883,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44088</v>
       </c>
@@ -897,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44089</v>
       </c>
@@ -911,7 +911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44090</v>
       </c>
@@ -925,7 +925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44091</v>
       </c>
@@ -939,7 +939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44092</v>
       </c>
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44093</v>
       </c>
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44094</v>
       </c>
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44095</v>
       </c>
@@ -989,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44096</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44097</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44098</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44099</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44100</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44101</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44102</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44103</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44104</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44105</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44106</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44107</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44108</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44109</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44110</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44111</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44112</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44113</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44114</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44115</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44116</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44117</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44118</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44119</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44120</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44121</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44122</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44123</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44124</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44125</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44126</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44127</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44128</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44129</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44130</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44131</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44132</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44133</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44134</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44135</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44136</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44137</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44138</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44139</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44140</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44141</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44142</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44143</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44144</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44145</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44146</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44147</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44148</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44149</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44150</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44151</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44152</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44153</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44154</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44155</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44156</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44157</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44158</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44159</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44160</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44161</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44162</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44163</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44164</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44165</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44166</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44167</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44168</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44169</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44170</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44171</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44172</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44173</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44175</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44176</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44177</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44178</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44179</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44180</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44181</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44182</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44183</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44184</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44185</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44186</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44187</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44188</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44189</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44190</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44191</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44192</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44193</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44194</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44195</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44196</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44197</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44198</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44199</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44200</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44201</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44202</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44203</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44204</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44205</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44206</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44207</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44208</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44209</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44210</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44211</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44212</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44213</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44214</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44215</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44216</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44217</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44218</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44219</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44220</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44221</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44222</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44223</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44224</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44225</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44226</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44228</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44229</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44230</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44231</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44232</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44233</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44234</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44235</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44237</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44238</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44239</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44240</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44241</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44242</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44243</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44244</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44245</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44246</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44247</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44248</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44249</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44250</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44251</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44252</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44253</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44254</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44255</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44256</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44257</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44258</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44259</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44260</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44261</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44262</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44263</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44264</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44265</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44266</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44267</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44268</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44269</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44270</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44271</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44272</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44273</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44274</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44275</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44276</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44277</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44278</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44279</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44280</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44281</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44282</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44283</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44284</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44285</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44286</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44287</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44288</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44289</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44290</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44291</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44292</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44293</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44294</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44295</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44296</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44297</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44298</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44299</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44300</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44301</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44302</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44303</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44304</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44305</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44306</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44307</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44308</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44309</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44310</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44311</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44312</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44313</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44314</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44315</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44316</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44317</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44318</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44319</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44320</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44321</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44322</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44323</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44324</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44325</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44326</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44327</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44328</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44329</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44330</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44331</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44332</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44333</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44334</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44335</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44336</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44337</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44338</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44339</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44340</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44341</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44342</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44343</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44344</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44345</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44346</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44347</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44348</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44349</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44350</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44351</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44352</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44353</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44354</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44355</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44356</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44357</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44358</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44359</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44360</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44361</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44362</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44363</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44364</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44365</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44366</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44367</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44368</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44369</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44370</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44371</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44372</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44373</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44374</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44375</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44376</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44377</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44378</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44379</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44380</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44381</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44382</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>44383</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44384</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>44385</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>44386</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44387</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44388</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44389</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44390</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>44391</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44392</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>44393</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44394</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>44395</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>44396</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>44397</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44398</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44399</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44400</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44401</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44402</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44403</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44404</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44405</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44406</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44407</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44408</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>44409</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>44410</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>44411</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>44412</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>44413</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>44414</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>44415</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>44416</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>44417</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>44418</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>44419</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>44420</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>44421</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44422</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>44423</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>44424</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44425</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44426</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>44427</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44428</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>44429</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>44430</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44431</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44432</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44433</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44434</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>44435</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44436</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44437</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44438</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44439</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44440</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44441</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44442</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44443</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44444</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44445</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44446</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44447</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>44448</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>44449</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>44450</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>44451</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>44452</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>44453</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>44454</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>44455</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>44456</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>44457</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>44458</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>44459</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>44460</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>44461</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>44462</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>44463</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>44464</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>44465</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>44466</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>44467</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>44468</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>44469</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>44470</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>44471</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>44472</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>44473</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>44474</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>44475</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>44476</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>44477</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>44478</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>44479</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>44480</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>44481</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>44482</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>44483</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>44484</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>44485</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>44486</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>44487</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>44488</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>44489</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>44490</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>44491</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>44492</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>44493</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>44494</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>44495</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>44496</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>44497</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>44498</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>44499</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>44500</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>44501</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>44502</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>44503</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>44504</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>44505</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>44506</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>44507</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>44508</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>44509</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>44510</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>44511</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>44512</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>44513</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>44514</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>44515</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>44516</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>44517</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>44518</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>44519</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>44520</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>44521</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>44522</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>44523</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>44524</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>44525</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>44526</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>44527</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>44528</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>44529</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>44530</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>44531</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>44532</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>44533</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>44534</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>44535</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>44536</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>44537</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>44538</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>44539</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>44540</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>44541</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>44542</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>44543</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>44544</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>44545</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>44546</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>44547</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>44548</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>44549</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>44550</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>44551</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>44552</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>44553</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>44554</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>44555</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>44556</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>44557</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>44558</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>44559</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>44560</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>44561</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>44562</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>44563</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>44564</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>44565</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>44566</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>44567</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>44568</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>44569</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>44570</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>44571</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>44572</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>44573</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>44574</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>44575</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>44576</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>44577</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>44578</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>44579</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>44580</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>44581</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>44582</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>44583</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>44584</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>44585</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>44586</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>44587</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>44588</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>44589</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>44590</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>44591</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>44592</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>44593</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>44594</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>44595</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>44596</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>44597</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>44598</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>44599</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>44600</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>44601</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>44602</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>44603</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>44604</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>44605</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>44606</v>
       </c>
@@ -7870,6 +7870,62 @@
         <v>3</v>
       </c>
       <c r="D555" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B556">
+        <v>711</v>
+      </c>
+      <c r="C556" t="s">
+        <v>3</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B557">
+        <v>715</v>
+      </c>
+      <c r="C557" t="s">
+        <v>3</v>
+      </c>
+      <c r="D557" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B558">
+        <v>714</v>
+      </c>
+      <c r="C558" t="s">
+        <v>3</v>
+      </c>
+      <c r="D558" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B559">
+        <v>782</v>
+      </c>
+      <c r="C559" t="s">
+        <v>3</v>
+      </c>
+      <c r="D559" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -72,6 +72,33 @@
   </si>
   <si>
     <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8988</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8989</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8990</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8991</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8992</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8993</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8994</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8995</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8997</t>
   </si>
 </sst>
 </file>
@@ -401,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D559"/>
+  <dimension ref="A1:D569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A537" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B557" sqref="B557"/>
+    <sheetView tabSelected="1" topLeftCell="A546" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B560" sqref="B560"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44053</v>
       </c>
@@ -437,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44054</v>
       </c>
@@ -451,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44055</v>
       </c>
@@ -465,7 +492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44056</v>
       </c>
@@ -479,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44057</v>
       </c>
@@ -493,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44058</v>
       </c>
@@ -504,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44059</v>
       </c>
@@ -515,7 +542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44060</v>
       </c>
@@ -529,7 +556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44061</v>
       </c>
@@ -543,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44062</v>
       </c>
@@ -557,7 +584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44063</v>
       </c>
@@ -571,7 +598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44064</v>
       </c>
@@ -585,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44065</v>
       </c>
@@ -596,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44066</v>
       </c>
@@ -607,7 +634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44067</v>
       </c>
@@ -621,7 +648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44068</v>
       </c>
@@ -635,7 +662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44069</v>
       </c>
@@ -649,7 +676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -663,7 +690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44071</v>
       </c>
@@ -677,7 +704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44072</v>
       </c>
@@ -688,7 +715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44073</v>
       </c>
@@ -699,7 +726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -713,7 +740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44075</v>
       </c>
@@ -727,7 +754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44076</v>
       </c>
@@ -741,7 +768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44077</v>
       </c>
@@ -755,7 +782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44078</v>
       </c>
@@ -769,7 +796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44079</v>
       </c>
@@ -780,7 +807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44080</v>
       </c>
@@ -791,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44081</v>
       </c>
@@ -805,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44082</v>
       </c>
@@ -819,7 +846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44083</v>
       </c>
@@ -833,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44084</v>
       </c>
@@ -847,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44085</v>
       </c>
@@ -861,7 +888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44086</v>
       </c>
@@ -872,7 +899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44087</v>
       </c>
@@ -883,7 +910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44088</v>
       </c>
@@ -897,7 +924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44089</v>
       </c>
@@ -911,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44090</v>
       </c>
@@ -925,7 +952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44091</v>
       </c>
@@ -939,7 +966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44092</v>
       </c>
@@ -953,7 +980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44093</v>
       </c>
@@ -964,7 +991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44094</v>
       </c>
@@ -975,7 +1002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44095</v>
       </c>
@@ -989,7 +1016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44096</v>
       </c>
@@ -1003,7 +1030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44097</v>
       </c>
@@ -1017,7 +1044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44098</v>
       </c>
@@ -1031,7 +1058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44099</v>
       </c>
@@ -1045,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44100</v>
       </c>
@@ -1056,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44101</v>
       </c>
@@ -1067,7 +1094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44102</v>
       </c>
@@ -1081,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44103</v>
       </c>
@@ -1095,7 +1122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44104</v>
       </c>
@@ -1109,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44105</v>
       </c>
@@ -1123,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44106</v>
       </c>
@@ -1137,7 +1164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44107</v>
       </c>
@@ -1148,7 +1175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44108</v>
       </c>
@@ -1159,7 +1186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44109</v>
       </c>
@@ -1173,7 +1200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44110</v>
       </c>
@@ -1187,7 +1214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44111</v>
       </c>
@@ -1201,7 +1228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44112</v>
       </c>
@@ -1215,7 +1242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44113</v>
       </c>
@@ -1229,7 +1256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44114</v>
       </c>
@@ -1240,7 +1267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44115</v>
       </c>
@@ -1251,7 +1278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44116</v>
       </c>
@@ -1265,7 +1292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44117</v>
       </c>
@@ -1279,7 +1306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44118</v>
       </c>
@@ -1293,7 +1320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44119</v>
       </c>
@@ -1307,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44120</v>
       </c>
@@ -1321,7 +1348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44121</v>
       </c>
@@ -1332,7 +1359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44122</v>
       </c>
@@ -1343,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44123</v>
       </c>
@@ -1357,7 +1384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44124</v>
       </c>
@@ -1371,7 +1398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44125</v>
       </c>
@@ -1385,7 +1412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44126</v>
       </c>
@@ -1399,7 +1426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44127</v>
       </c>
@@ -1413,7 +1440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44128</v>
       </c>
@@ -1424,7 +1451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44129</v>
       </c>
@@ -1435,7 +1462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44130</v>
       </c>
@@ -1449,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44131</v>
       </c>
@@ -1463,7 +1490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44132</v>
       </c>
@@ -1477,7 +1504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44133</v>
       </c>
@@ -1491,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44134</v>
       </c>
@@ -1505,7 +1532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44135</v>
       </c>
@@ -1516,7 +1543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44136</v>
       </c>
@@ -1527,7 +1554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44137</v>
       </c>
@@ -1541,7 +1568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44138</v>
       </c>
@@ -1555,7 +1582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44139</v>
       </c>
@@ -1569,7 +1596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44140</v>
       </c>
@@ -1583,7 +1610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44141</v>
       </c>
@@ -1597,7 +1624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44142</v>
       </c>
@@ -1608,7 +1635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44143</v>
       </c>
@@ -1619,7 +1646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44144</v>
       </c>
@@ -1633,7 +1660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44145</v>
       </c>
@@ -1647,7 +1674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44146</v>
       </c>
@@ -1661,7 +1688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44147</v>
       </c>
@@ -1675,7 +1702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44148</v>
       </c>
@@ -1689,7 +1716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44149</v>
       </c>
@@ -1700,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44150</v>
       </c>
@@ -1711,7 +1738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44151</v>
       </c>
@@ -1725,7 +1752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44152</v>
       </c>
@@ -1739,7 +1766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44153</v>
       </c>
@@ -1750,7 +1777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44154</v>
       </c>
@@ -1764,7 +1791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44155</v>
       </c>
@@ -1778,7 +1805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44156</v>
       </c>
@@ -1789,7 +1816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44157</v>
       </c>
@@ -1800,7 +1827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44158</v>
       </c>
@@ -1814,7 +1841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44159</v>
       </c>
@@ -1828,7 +1855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44160</v>
       </c>
@@ -1842,7 +1869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44161</v>
       </c>
@@ -1856,7 +1883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44162</v>
       </c>
@@ -1870,7 +1897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44163</v>
       </c>
@@ -1881,7 +1908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44164</v>
       </c>
@@ -1892,7 +1919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44165</v>
       </c>
@@ -1906,7 +1933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44166</v>
       </c>
@@ -1920,7 +1947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44167</v>
       </c>
@@ -1934,7 +1961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44168</v>
       </c>
@@ -1948,7 +1975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44169</v>
       </c>
@@ -1962,7 +1989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44170</v>
       </c>
@@ -1973,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44171</v>
       </c>
@@ -1984,7 +2011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44172</v>
       </c>
@@ -1998,7 +2025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44173</v>
       </c>
@@ -2012,7 +2039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -2026,7 +2053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44175</v>
       </c>
@@ -2040,7 +2067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44176</v>
       </c>
@@ -2054,7 +2081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44177</v>
       </c>
@@ -2065,7 +2092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44178</v>
       </c>
@@ -2076,7 +2103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44179</v>
       </c>
@@ -2090,7 +2117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44180</v>
       </c>
@@ -2104,7 +2131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44181</v>
       </c>
@@ -2118,7 +2145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44182</v>
       </c>
@@ -2132,7 +2159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44183</v>
       </c>
@@ -2146,7 +2173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44184</v>
       </c>
@@ -2157,7 +2184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44185</v>
       </c>
@@ -2168,7 +2195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44186</v>
       </c>
@@ -2182,7 +2209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44187</v>
       </c>
@@ -2196,7 +2223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44188</v>
       </c>
@@ -2210,7 +2237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44189</v>
       </c>
@@ -2224,7 +2251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44190</v>
       </c>
@@ -2235,7 +2262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44191</v>
       </c>
@@ -2246,7 +2273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44192</v>
       </c>
@@ -2257,7 +2284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44193</v>
       </c>
@@ -2271,7 +2298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44194</v>
       </c>
@@ -2285,7 +2312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44195</v>
       </c>
@@ -2299,7 +2326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44196</v>
       </c>
@@ -2313,7 +2340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44197</v>
       </c>
@@ -2324,7 +2351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44198</v>
       </c>
@@ -2335,7 +2362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44199</v>
       </c>
@@ -2346,7 +2373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44200</v>
       </c>
@@ -2360,7 +2387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44201</v>
       </c>
@@ -2374,7 +2401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44202</v>
       </c>
@@ -2388,7 +2415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44203</v>
       </c>
@@ -2402,7 +2429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44204</v>
       </c>
@@ -2416,7 +2443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44205</v>
       </c>
@@ -2427,7 +2454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44206</v>
       </c>
@@ -2438,7 +2465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44207</v>
       </c>
@@ -2452,7 +2479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44208</v>
       </c>
@@ -2466,7 +2493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44209</v>
       </c>
@@ -2480,7 +2507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44210</v>
       </c>
@@ -2494,7 +2521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44211</v>
       </c>
@@ -2508,7 +2535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44212</v>
       </c>
@@ -2519,7 +2546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44213</v>
       </c>
@@ -2530,7 +2557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44214</v>
       </c>
@@ -2544,7 +2571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44215</v>
       </c>
@@ -2558,7 +2585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44216</v>
       </c>
@@ -2572,7 +2599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44217</v>
       </c>
@@ -2586,7 +2613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44218</v>
       </c>
@@ -2600,7 +2627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44219</v>
       </c>
@@ -2611,7 +2638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44220</v>
       </c>
@@ -2622,7 +2649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44221</v>
       </c>
@@ -2636,7 +2663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44222</v>
       </c>
@@ -2650,7 +2677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44223</v>
       </c>
@@ -2664,7 +2691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44224</v>
       </c>
@@ -2678,7 +2705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44225</v>
       </c>
@@ -2692,7 +2719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44226</v>
       </c>
@@ -2703,7 +2730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -2714,7 +2741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44228</v>
       </c>
@@ -2728,7 +2755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44229</v>
       </c>
@@ -2742,7 +2769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44230</v>
       </c>
@@ -2756,7 +2783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44231</v>
       </c>
@@ -2770,7 +2797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44232</v>
       </c>
@@ -2784,7 +2811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44233</v>
       </c>
@@ -2795,7 +2822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44234</v>
       </c>
@@ -2806,7 +2833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44235</v>
       </c>
@@ -2820,7 +2847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -2834,7 +2861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44237</v>
       </c>
@@ -2848,7 +2875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44238</v>
       </c>
@@ -2862,7 +2889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44239</v>
       </c>
@@ -2876,7 +2903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44240</v>
       </c>
@@ -2887,7 +2914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44241</v>
       </c>
@@ -2898,7 +2925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44242</v>
       </c>
@@ -2912,7 +2939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44243</v>
       </c>
@@ -2926,7 +2953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44244</v>
       </c>
@@ -2940,7 +2967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44245</v>
       </c>
@@ -2954,7 +2981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44246</v>
       </c>
@@ -2968,7 +2995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44247</v>
       </c>
@@ -2979,7 +3006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44248</v>
       </c>
@@ -2990,7 +3017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44249</v>
       </c>
@@ -3004,7 +3031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44250</v>
       </c>
@@ -3018,7 +3045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44251</v>
       </c>
@@ -3032,7 +3059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44252</v>
       </c>
@@ -3046,7 +3073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44253</v>
       </c>
@@ -3060,7 +3087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44254</v>
       </c>
@@ -3071,7 +3098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44255</v>
       </c>
@@ -3082,7 +3109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44256</v>
       </c>
@@ -3096,7 +3123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44257</v>
       </c>
@@ -3110,7 +3137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44258</v>
       </c>
@@ -3124,7 +3151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44259</v>
       </c>
@@ -3138,7 +3165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44260</v>
       </c>
@@ -3152,7 +3179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44261</v>
       </c>
@@ -3163,7 +3190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44262</v>
       </c>
@@ -3174,7 +3201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44263</v>
       </c>
@@ -3188,7 +3215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44264</v>
       </c>
@@ -3202,7 +3229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44265</v>
       </c>
@@ -3216,7 +3243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44266</v>
       </c>
@@ -3230,7 +3257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44267</v>
       </c>
@@ -3244,7 +3271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44268</v>
       </c>
@@ -3255,7 +3282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44269</v>
       </c>
@@ -3266,7 +3293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44270</v>
       </c>
@@ -3280,7 +3307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44271</v>
       </c>
@@ -3294,7 +3321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44272</v>
       </c>
@@ -3308,7 +3335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44273</v>
       </c>
@@ -3322,7 +3349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44274</v>
       </c>
@@ -3336,7 +3363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44275</v>
       </c>
@@ -3347,7 +3374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44276</v>
       </c>
@@ -3358,7 +3385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44277</v>
       </c>
@@ -3372,7 +3399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44278</v>
       </c>
@@ -3386,7 +3413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44279</v>
       </c>
@@ -3400,7 +3427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44280</v>
       </c>
@@ -3414,7 +3441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44281</v>
       </c>
@@ -3428,7 +3455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44282</v>
       </c>
@@ -3439,7 +3466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44283</v>
       </c>
@@ -3450,7 +3477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44284</v>
       </c>
@@ -3464,7 +3491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44285</v>
       </c>
@@ -3478,7 +3505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44286</v>
       </c>
@@ -3492,7 +3519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44287</v>
       </c>
@@ -3506,7 +3533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44288</v>
       </c>
@@ -3520,7 +3547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44289</v>
       </c>
@@ -3534,7 +3561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44290</v>
       </c>
@@ -3548,7 +3575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44291</v>
       </c>
@@ -3562,7 +3589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44292</v>
       </c>
@@ -3576,7 +3603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44293</v>
       </c>
@@ -3590,7 +3617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44294</v>
       </c>
@@ -3604,7 +3631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44295</v>
       </c>
@@ -3618,7 +3645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44296</v>
       </c>
@@ -3632,7 +3659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44297</v>
       </c>
@@ -3646,7 +3673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44298</v>
       </c>
@@ -3660,7 +3687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44299</v>
       </c>
@@ -3674,7 +3701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44300</v>
       </c>
@@ -3688,7 +3715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44301</v>
       </c>
@@ -3702,7 +3729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44302</v>
       </c>
@@ -3716,7 +3743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44303</v>
       </c>
@@ -3730,7 +3757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44304</v>
       </c>
@@ -3744,7 +3771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44305</v>
       </c>
@@ -3758,7 +3785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44306</v>
       </c>
@@ -3772,7 +3799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44307</v>
       </c>
@@ -3786,7 +3813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44308</v>
       </c>
@@ -3800,7 +3827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44309</v>
       </c>
@@ -3814,7 +3841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44310</v>
       </c>
@@ -3828,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44311</v>
       </c>
@@ -3842,7 +3869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44312</v>
       </c>
@@ -3856,7 +3883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44313</v>
       </c>
@@ -3870,7 +3897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44314</v>
       </c>
@@ -3884,7 +3911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44315</v>
       </c>
@@ -3898,7 +3925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44316</v>
       </c>
@@ -3912,7 +3939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44317</v>
       </c>
@@ -3926,7 +3953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44318</v>
       </c>
@@ -3940,7 +3967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44319</v>
       </c>
@@ -3954,7 +3981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44320</v>
       </c>
@@ -3968,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44321</v>
       </c>
@@ -3982,7 +4009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44322</v>
       </c>
@@ -3996,7 +4023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44323</v>
       </c>
@@ -4010,7 +4037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44324</v>
       </c>
@@ -4024,7 +4051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44325</v>
       </c>
@@ -4038,7 +4065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44326</v>
       </c>
@@ -4052,7 +4079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44327</v>
       </c>
@@ -4066,7 +4093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44328</v>
       </c>
@@ -4080,7 +4107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44329</v>
       </c>
@@ -4091,7 +4118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44330</v>
       </c>
@@ -4102,7 +4129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44331</v>
       </c>
@@ -4113,7 +4140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44332</v>
       </c>
@@ -4124,7 +4151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44333</v>
       </c>
@@ -4138,7 +4165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44334</v>
       </c>
@@ -4152,7 +4179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44335</v>
       </c>
@@ -4166,7 +4193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44336</v>
       </c>
@@ -4180,7 +4207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44337</v>
       </c>
@@ -4194,7 +4221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44338</v>
       </c>
@@ -4205,7 +4232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44339</v>
       </c>
@@ -4216,7 +4243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44340</v>
       </c>
@@ -4227,7 +4254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44341</v>
       </c>
@@ -4241,7 +4268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44342</v>
       </c>
@@ -4255,7 +4282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44343</v>
       </c>
@@ -4269,7 +4296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44344</v>
       </c>
@@ -4283,7 +4310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44345</v>
       </c>
@@ -4294,7 +4321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44346</v>
       </c>
@@ -4305,7 +4332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44347</v>
       </c>
@@ -4319,7 +4346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44348</v>
       </c>
@@ -4333,7 +4360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44349</v>
       </c>
@@ -4347,7 +4374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44350</v>
       </c>
@@ -4361,7 +4388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44351</v>
       </c>
@@ -4375,7 +4402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44352</v>
       </c>
@@ -4386,7 +4413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44353</v>
       </c>
@@ -4397,7 +4424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44354</v>
       </c>
@@ -4411,7 +4438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44355</v>
       </c>
@@ -4425,7 +4452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44356</v>
       </c>
@@ -4439,7 +4466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44357</v>
       </c>
@@ -4453,7 +4480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44358</v>
       </c>
@@ -4467,7 +4494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44359</v>
       </c>
@@ -4478,7 +4505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44360</v>
       </c>
@@ -4489,7 +4516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44361</v>
       </c>
@@ -4503,7 +4530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44362</v>
       </c>
@@ -4517,7 +4544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44363</v>
       </c>
@@ -4531,7 +4558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44364</v>
       </c>
@@ -4545,7 +4572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44365</v>
       </c>
@@ -4559,7 +4586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44366</v>
       </c>
@@ -4570,7 +4597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44367</v>
       </c>
@@ -4581,7 +4608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44368</v>
       </c>
@@ -4595,7 +4622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44369</v>
       </c>
@@ -4609,7 +4636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44370</v>
       </c>
@@ -4623,7 +4650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44371</v>
       </c>
@@ -4637,7 +4664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44372</v>
       </c>
@@ -4651,7 +4678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44373</v>
       </c>
@@ -4662,7 +4689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44374</v>
       </c>
@@ -4673,7 +4700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44375</v>
       </c>
@@ -4687,7 +4714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44376</v>
       </c>
@@ -4701,7 +4728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44377</v>
       </c>
@@ -4715,7 +4742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44378</v>
       </c>
@@ -4729,7 +4756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44379</v>
       </c>
@@ -4743,7 +4770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44380</v>
       </c>
@@ -4754,7 +4781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44381</v>
       </c>
@@ -4765,7 +4792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44382</v>
       </c>
@@ -4779,7 +4806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44383</v>
       </c>
@@ -4793,7 +4820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44384</v>
       </c>
@@ -4807,7 +4834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44385</v>
       </c>
@@ -4821,7 +4848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44386</v>
       </c>
@@ -4835,7 +4862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44387</v>
       </c>
@@ -4846,7 +4873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44388</v>
       </c>
@@ -4857,7 +4884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44389</v>
       </c>
@@ -4871,7 +4898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44390</v>
       </c>
@@ -4885,7 +4912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44391</v>
       </c>
@@ -4899,7 +4926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44392</v>
       </c>
@@ -4913,7 +4940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44393</v>
       </c>
@@ -4927,7 +4954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44394</v>
       </c>
@@ -4938,7 +4965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44395</v>
       </c>
@@ -4949,7 +4976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44396</v>
       </c>
@@ -4963,7 +4990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44397</v>
       </c>
@@ -4977,7 +5004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44398</v>
       </c>
@@ -4991,7 +5018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44399</v>
       </c>
@@ -5005,7 +5032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44400</v>
       </c>
@@ -5019,7 +5046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44401</v>
       </c>
@@ -5030,7 +5057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44402</v>
       </c>
@@ -5041,7 +5068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44403</v>
       </c>
@@ -5055,7 +5082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44404</v>
       </c>
@@ -5069,7 +5096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44405</v>
       </c>
@@ -5083,7 +5110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44406</v>
       </c>
@@ -5097,7 +5124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44407</v>
       </c>
@@ -5111,7 +5138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44408</v>
       </c>
@@ -5122,7 +5149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44409</v>
       </c>
@@ -5133,7 +5160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44410</v>
       </c>
@@ -5147,7 +5174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44411</v>
       </c>
@@ -5161,7 +5188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>44412</v>
       </c>
@@ -5175,7 +5202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>44413</v>
       </c>
@@ -5189,7 +5216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>44414</v>
       </c>
@@ -5203,7 +5230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>44415</v>
       </c>
@@ -5214,7 +5241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>44416</v>
       </c>
@@ -5225,7 +5252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>44417</v>
       </c>
@@ -5239,7 +5266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>44418</v>
       </c>
@@ -5253,7 +5280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>44419</v>
       </c>
@@ -5267,7 +5294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>44420</v>
       </c>
@@ -5281,7 +5308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>44421</v>
       </c>
@@ -5295,7 +5322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44422</v>
       </c>
@@ -5306,7 +5333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>44423</v>
       </c>
@@ -5317,7 +5344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>44424</v>
       </c>
@@ -5331,7 +5358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44425</v>
       </c>
@@ -5345,7 +5372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>44426</v>
       </c>
@@ -5359,7 +5386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>44427</v>
       </c>
@@ -5373,7 +5400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44428</v>
       </c>
@@ -5387,7 +5414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>44429</v>
       </c>
@@ -5398,7 +5425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>44430</v>
       </c>
@@ -5409,7 +5436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44431</v>
       </c>
@@ -5423,7 +5450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>44432</v>
       </c>
@@ -5437,7 +5464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44433</v>
       </c>
@@ -5451,7 +5478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>44434</v>
       </c>
@@ -5465,7 +5492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>44435</v>
       </c>
@@ -5479,7 +5506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44436</v>
       </c>
@@ -5493,7 +5520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>44437</v>
       </c>
@@ -5507,7 +5534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>44438</v>
       </c>
@@ -5521,7 +5548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44439</v>
       </c>
@@ -5535,7 +5562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>44440</v>
       </c>
@@ -5549,7 +5576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>44441</v>
       </c>
@@ -5563,7 +5590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44442</v>
       </c>
@@ -5577,7 +5604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>44443</v>
       </c>
@@ -5591,7 +5618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>44444</v>
       </c>
@@ -5605,7 +5632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>44445</v>
       </c>
@@ -5619,7 +5646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>44446</v>
       </c>
@@ -5633,7 +5660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>44447</v>
       </c>
@@ -5647,7 +5674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>44448</v>
       </c>
@@ -5661,7 +5688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>44449</v>
       </c>
@@ -5675,7 +5702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>44450</v>
       </c>
@@ -5689,7 +5716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>44451</v>
       </c>
@@ -5703,7 +5730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>44452</v>
       </c>
@@ -5717,7 +5744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>44453</v>
       </c>
@@ -5731,7 +5758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>44454</v>
       </c>
@@ -5745,7 +5772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>44455</v>
       </c>
@@ -5759,7 +5786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>44456</v>
       </c>
@@ -5773,7 +5800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>44457</v>
       </c>
@@ -5787,7 +5814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>44458</v>
       </c>
@@ -5801,7 +5828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>44459</v>
       </c>
@@ -5815,7 +5842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>44460</v>
       </c>
@@ -5829,7 +5856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>44461</v>
       </c>
@@ -5843,7 +5870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>44462</v>
       </c>
@@ -5857,7 +5884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>44463</v>
       </c>
@@ -5871,7 +5898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>44464</v>
       </c>
@@ -5885,7 +5912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>44465</v>
       </c>
@@ -5899,7 +5926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>44466</v>
       </c>
@@ -5913,7 +5940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>44467</v>
       </c>
@@ -5927,7 +5954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>44468</v>
       </c>
@@ -5941,7 +5968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>44469</v>
       </c>
@@ -5955,7 +5982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>44470</v>
       </c>
@@ -5969,7 +5996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>44471</v>
       </c>
@@ -5983,7 +6010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>44472</v>
       </c>
@@ -5997,7 +6024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>44473</v>
       </c>
@@ -6011,7 +6038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>44474</v>
       </c>
@@ -6025,7 +6052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>44475</v>
       </c>
@@ -6039,7 +6066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>44476</v>
       </c>
@@ -6053,7 +6080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>44477</v>
       </c>
@@ -6067,7 +6094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>44478</v>
       </c>
@@ -6081,7 +6108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>44479</v>
       </c>
@@ -6095,7 +6122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>44480</v>
       </c>
@@ -6109,7 +6136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>44481</v>
       </c>
@@ -6123,7 +6150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>44482</v>
       </c>
@@ -6137,7 +6164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>44483</v>
       </c>
@@ -6151,7 +6178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>44484</v>
       </c>
@@ -6165,7 +6192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>44485</v>
       </c>
@@ -6179,7 +6206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>44486</v>
       </c>
@@ -6193,7 +6220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>44487</v>
       </c>
@@ -6207,7 +6234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>44488</v>
       </c>
@@ -6221,7 +6248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>44489</v>
       </c>
@@ -6235,7 +6262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>44490</v>
       </c>
@@ -6249,7 +6276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>44491</v>
       </c>
@@ -6263,7 +6290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>44492</v>
       </c>
@@ -6277,7 +6304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>44493</v>
       </c>
@@ -6291,7 +6318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>44494</v>
       </c>
@@ -6305,7 +6332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>44495</v>
       </c>
@@ -6319,7 +6346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>44496</v>
       </c>
@@ -6333,7 +6360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>44497</v>
       </c>
@@ -6347,7 +6374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>44498</v>
       </c>
@@ -6361,7 +6388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>44499</v>
       </c>
@@ -6375,7 +6402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>44500</v>
       </c>
@@ -6389,7 +6416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>44501</v>
       </c>
@@ -6403,7 +6430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>44502</v>
       </c>
@@ -6417,7 +6444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>44503</v>
       </c>
@@ -6431,7 +6458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>44504</v>
       </c>
@@ -6445,7 +6472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>44505</v>
       </c>
@@ -6459,7 +6486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>44506</v>
       </c>
@@ -6473,7 +6500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>44507</v>
       </c>
@@ -6487,7 +6514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>44508</v>
       </c>
@@ -6501,7 +6528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>44509</v>
       </c>
@@ -6515,7 +6542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>44510</v>
       </c>
@@ -6529,7 +6556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>44511</v>
       </c>
@@ -6543,7 +6570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>44512</v>
       </c>
@@ -6557,7 +6584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>44513</v>
       </c>
@@ -6571,7 +6598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>44514</v>
       </c>
@@ -6585,7 +6612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>44515</v>
       </c>
@@ -6599,7 +6626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>44516</v>
       </c>
@@ -6613,7 +6640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>44517</v>
       </c>
@@ -6627,7 +6654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>44518</v>
       </c>
@@ -6641,7 +6668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>44519</v>
       </c>
@@ -6655,7 +6682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>44520</v>
       </c>
@@ -6669,7 +6696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>44521</v>
       </c>
@@ -6683,7 +6710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>44522</v>
       </c>
@@ -6697,7 +6724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>44523</v>
       </c>
@@ -6711,7 +6738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>44524</v>
       </c>
@@ -6725,7 +6752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>44525</v>
       </c>
@@ -6739,7 +6766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>44526</v>
       </c>
@@ -6753,7 +6780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>44527</v>
       </c>
@@ -6767,7 +6794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>44528</v>
       </c>
@@ -6781,7 +6808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>44529</v>
       </c>
@@ -6795,7 +6822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>44530</v>
       </c>
@@ -6809,7 +6836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>44531</v>
       </c>
@@ -6823,7 +6850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>44532</v>
       </c>
@@ -6837,7 +6864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>44533</v>
       </c>
@@ -6851,7 +6878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>44534</v>
       </c>
@@ -6865,7 +6892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>44535</v>
       </c>
@@ -6879,7 +6906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>44536</v>
       </c>
@@ -6893,7 +6920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>44537</v>
       </c>
@@ -6907,7 +6934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>44538</v>
       </c>
@@ -6921,7 +6948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>44539</v>
       </c>
@@ -6935,7 +6962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>44540</v>
       </c>
@@ -6949,7 +6976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>44541</v>
       </c>
@@ -6963,7 +6990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>44542</v>
       </c>
@@ -6977,7 +7004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>44543</v>
       </c>
@@ -6991,7 +7018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>44544</v>
       </c>
@@ -7005,7 +7032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>44545</v>
       </c>
@@ -7019,7 +7046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>44546</v>
       </c>
@@ -7033,7 +7060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>44547</v>
       </c>
@@ -7047,7 +7074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>44548</v>
       </c>
@@ -7061,7 +7088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>44549</v>
       </c>
@@ -7075,7 +7102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>44550</v>
       </c>
@@ -7089,7 +7116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>44551</v>
       </c>
@@ -7103,7 +7130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>44552</v>
       </c>
@@ -7117,7 +7144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>44553</v>
       </c>
@@ -7131,7 +7158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>44554</v>
       </c>
@@ -7145,7 +7172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>44555</v>
       </c>
@@ -7159,7 +7186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>44556</v>
       </c>
@@ -7173,7 +7200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>44557</v>
       </c>
@@ -7187,7 +7214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>44558</v>
       </c>
@@ -7201,7 +7228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>44559</v>
       </c>
@@ -7215,7 +7242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>44560</v>
       </c>
@@ -7229,7 +7256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>44561</v>
       </c>
@@ -7243,7 +7270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>44562</v>
       </c>
@@ -7257,7 +7284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>44563</v>
       </c>
@@ -7271,7 +7298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>44564</v>
       </c>
@@ -7285,7 +7312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>44565</v>
       </c>
@@ -7299,7 +7326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>44566</v>
       </c>
@@ -7313,7 +7340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>44567</v>
       </c>
@@ -7327,7 +7354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>44568</v>
       </c>
@@ -7341,7 +7368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>44569</v>
       </c>
@@ -7355,7 +7382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>44570</v>
       </c>
@@ -7369,7 +7396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>44571</v>
       </c>
@@ -7383,7 +7410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>44572</v>
       </c>
@@ -7397,7 +7424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>44573</v>
       </c>
@@ -7411,7 +7438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>44574</v>
       </c>
@@ -7425,7 +7452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>44575</v>
       </c>
@@ -7439,7 +7466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>44576</v>
       </c>
@@ -7453,7 +7480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>44577</v>
       </c>
@@ -7467,7 +7494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>44578</v>
       </c>
@@ -7481,7 +7508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>44579</v>
       </c>
@@ -7495,7 +7522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>44580</v>
       </c>
@@ -7509,7 +7536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>44581</v>
       </c>
@@ -7523,7 +7550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>44582</v>
       </c>
@@ -7537,7 +7564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>44583</v>
       </c>
@@ -7551,7 +7578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>44584</v>
       </c>
@@ -7565,7 +7592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>44585</v>
       </c>
@@ -7579,7 +7606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>44586</v>
       </c>
@@ -7593,7 +7620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>44587</v>
       </c>
@@ -7607,7 +7634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>44588</v>
       </c>
@@ -7621,7 +7648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>44589</v>
       </c>
@@ -7635,7 +7662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>44590</v>
       </c>
@@ -7649,7 +7676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>44591</v>
       </c>
@@ -7663,7 +7690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>44592</v>
       </c>
@@ -7677,7 +7704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>44593</v>
       </c>
@@ -7691,7 +7718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>44594</v>
       </c>
@@ -7705,7 +7732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>44595</v>
       </c>
@@ -7719,7 +7746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>44596</v>
       </c>
@@ -7733,7 +7760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>44597</v>
       </c>
@@ -7747,7 +7774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>44598</v>
       </c>
@@ -7761,7 +7788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>44599</v>
       </c>
@@ -7775,7 +7802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>44600</v>
       </c>
@@ -7789,7 +7816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>44601</v>
       </c>
@@ -7803,7 +7830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>44602</v>
       </c>
@@ -7817,7 +7844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>44603</v>
       </c>
@@ -7831,7 +7858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>44604</v>
       </c>
@@ -7845,7 +7872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>44605</v>
       </c>
@@ -7859,7 +7886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>44606</v>
       </c>
@@ -7873,7 +7900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>44607</v>
       </c>
@@ -7887,7 +7914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>44608</v>
       </c>
@@ -7901,7 +7928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>44609</v>
       </c>
@@ -7915,7 +7942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>44610</v>
       </c>
@@ -7928,6 +7955,135 @@
       <c r="D559" s="2" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560" s="1">
+        <v>44611</v>
+      </c>
+      <c r="B560">
+        <v>725</v>
+      </c>
+      <c r="C560" t="s">
+        <v>3</v>
+      </c>
+      <c r="D560" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561" s="1">
+        <v>44612</v>
+      </c>
+      <c r="B561">
+        <v>736</v>
+      </c>
+      <c r="C561" t="s">
+        <v>3</v>
+      </c>
+      <c r="D561" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B562">
+        <v>806</v>
+      </c>
+      <c r="C562" t="s">
+        <v>3</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563" s="1">
+        <v>44614</v>
+      </c>
+      <c r="B563">
+        <v>822</v>
+      </c>
+      <c r="C563" t="s">
+        <v>3</v>
+      </c>
+      <c r="D563" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B564">
+        <v>844</v>
+      </c>
+      <c r="C564" t="s">
+        <v>3</v>
+      </c>
+      <c r="D564" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B565">
+        <v>859</v>
+      </c>
+      <c r="C565" t="s">
+        <v>3</v>
+      </c>
+      <c r="D565" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B566">
+        <v>872</v>
+      </c>
+      <c r="C566" t="s">
+        <v>3</v>
+      </c>
+      <c r="D566" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567" s="1">
+        <v>44618</v>
+      </c>
+      <c r="B567">
+        <v>809</v>
+      </c>
+      <c r="C567" t="s">
+        <v>3</v>
+      </c>
+      <c r="D567" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B568">
+        <v>840</v>
+      </c>
+      <c r="C568" t="s">
+        <v>3</v>
+      </c>
+      <c r="D568" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D256">

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -72,33 +72,6 @@
   </si>
   <si>
     <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8988</t>
-  </si>
-  <si>
-    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8989</t>
-  </si>
-  <si>
-    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8990</t>
-  </si>
-  <si>
-    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8991</t>
-  </si>
-  <si>
-    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8992</t>
-  </si>
-  <si>
-    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8993</t>
-  </si>
-  <si>
-    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8994</t>
-  </si>
-  <si>
-    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8995</t>
-  </si>
-  <si>
-    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996</t>
-  </si>
-  <si>
-    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8997</t>
   </si>
 </sst>
 </file>
@@ -428,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D569"/>
+  <dimension ref="A1:D572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A546" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B560" sqref="B560"/>
+    <sheetView tabSelected="1" topLeftCell="A552" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G575" sqref="G575:G576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7967,7 +7940,7 @@
         <v>3</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
@@ -7981,7 +7954,7 @@
         <v>3</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
@@ -7995,7 +7968,7 @@
         <v>3</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
@@ -8009,7 +7982,7 @@
         <v>3</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
@@ -8023,7 +7996,7 @@
         <v>3</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
@@ -8037,7 +8010,7 @@
         <v>3</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
@@ -8051,7 +8024,7 @@
         <v>3</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
@@ -8065,7 +8038,7 @@
         <v>3</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
@@ -8079,11 +8052,64 @@
         <v>3</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A569" s="1"/>
+      <c r="A569" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B569">
+        <v>903</v>
+      </c>
+      <c r="C569" t="s">
+        <v>3</v>
+      </c>
+      <c r="D569" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B570">
+        <v>960</v>
+      </c>
+      <c r="C570" t="s">
+        <v>3</v>
+      </c>
+      <c r="D570" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B571">
+        <v>920</v>
+      </c>
+      <c r="C571" t="s">
+        <v>3</v>
+      </c>
+      <c r="D571" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B572">
+        <v>945</v>
+      </c>
+      <c r="C572" t="s">
+        <v>3</v>
+      </c>
+      <c r="D572" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D256">

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D572"/>
+  <dimension ref="A1:D576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A552" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G575" sqref="G575:G576"/>
+    <sheetView tabSelected="1" topLeftCell="A558" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B577" sqref="B577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8108,6 +8108,62 @@
         <v>3</v>
       </c>
       <c r="D572" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A573" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B573">
+        <v>981</v>
+      </c>
+      <c r="C573" t="s">
+        <v>3</v>
+      </c>
+      <c r="D573" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574" s="1">
+        <v>44625</v>
+      </c>
+      <c r="B574">
+        <v>945</v>
+      </c>
+      <c r="C574" t="s">
+        <v>3</v>
+      </c>
+      <c r="D574" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A575" s="1">
+        <v>44626</v>
+      </c>
+      <c r="B575">
+        <v>956</v>
+      </c>
+      <c r="C575" t="s">
+        <v>3</v>
+      </c>
+      <c r="D575" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A576" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B576">
+        <v>1013</v>
+      </c>
+      <c r="C576" t="s">
+        <v>3</v>
+      </c>
+      <c r="D576" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D576"/>
+  <dimension ref="A1:D583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A558" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B577" sqref="B577"/>
+    <sheetView tabSelected="1" topLeftCell="A563" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B581" sqref="B581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8166,6 +8166,94 @@
       <c r="D576" s="2" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A577" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B577">
+        <v>1042</v>
+      </c>
+      <c r="C577" t="s">
+        <v>3</v>
+      </c>
+      <c r="D577" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A578" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B578">
+        <v>1062</v>
+      </c>
+      <c r="C578" t="s">
+        <v>3</v>
+      </c>
+      <c r="D578" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A579" s="1">
+        <v>44630</v>
+      </c>
+      <c r="B579">
+        <v>1098</v>
+      </c>
+      <c r="C579" t="s">
+        <v>3</v>
+      </c>
+      <c r="D579" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A580" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B580">
+        <v>1132</v>
+      </c>
+      <c r="C580" t="s">
+        <v>3</v>
+      </c>
+      <c r="D580" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A581" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B581">
+        <v>1092</v>
+      </c>
+      <c r="C581" t="s">
+        <v>3</v>
+      </c>
+      <c r="D581" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A582" s="1">
+        <v>44633</v>
+      </c>
+      <c r="B582">
+        <v>1143</v>
+      </c>
+      <c r="C582" t="s">
+        <v>3</v>
+      </c>
+      <c r="D582" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A583" s="1"/>
+      <c r="D583" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D256">
